--- a/data/trans_bre/P16A03-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A03-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A03-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A03-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,52</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>130,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>389,71%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>246,2%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,06%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,08; 5,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,67; 8,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,19; 5,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,7; 6,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>52,88; 259,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>173,39; 850,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>87,19; 532,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,96; 190,81</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>218,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>302,38%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>188,3%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>143,57%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,04; 4,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,32; 4,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,35; 3,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,31; 3,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>100,87; 391,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>148,39; 618,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>83,04; 395,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>62,56; 254,82</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>258,34%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>302,34%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>153,6%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,1; 2,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,67; 6,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,65; 5,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,02; 4,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,66; 117,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,26; 947,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>60,1; 1079,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,44; 455,29</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>137,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>350,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>230,16%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>141,26%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,09; 4,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,61; 5,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,18; 3,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,09; 3,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>78,61; 215,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>215,6; 526,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>133,1; 362,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>81,46; 211,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A03-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A03-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>95,06%</t>
+          <t>91,14%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,7; 6,1</t>
+          <t>1,63; 5,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>26,96; 190,81</t>
+          <t>25,19; 184,84</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>143,57%</t>
+          <t>154,28%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,3</t>
+          <t>1,05; 3,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>62,56; 254,82</t>
+          <t>60,15; 286,34</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>153,6%</t>
+          <t>156,23%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,63</t>
+          <t>1,06; 4,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>28,44; 455,29</t>
+          <t>28,92; 444,22</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>141,26%</t>
+          <t>146,72%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,09; 3,8</t>
+          <t>1,81; 3,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>81,46; 211,27</t>
+          <t>78,87; 231,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A03-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A03-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,08; 5,51</t>
+          <t>2,02; 5,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,67; 8,54</t>
+          <t>4,73; 8,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 5,64</t>
+          <t>2,18; 5,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,63; 5,98</t>
+          <t>1,65; 6,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>52,88; 259,12</t>
+          <t>52,61; 249,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>173,39; 850,67</t>
+          <t>163,88; 772,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>87,19; 532,34</t>
+          <t>80,73; 541,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>25,19; 184,84</t>
+          <t>27,78; 187,75</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,04; 4,27</t>
+          <t>2,0; 4,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,68</t>
+          <t>2,24; 4,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,19</t>
+          <t>1,36; 3,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,32</t>
+          <t>1,07; 3,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>100,87; 391,33</t>
+          <t>100,52; 453,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>148,39; 618,85</t>
+          <t>138,26; 563,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>83,04; 395,77</t>
+          <t>85,42; 382,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>60,15; 286,34</t>
+          <t>59,42; 288,12</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 2,71</t>
+          <t>-2,0; 2,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,67; 6,98</t>
+          <t>1,52; 7,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 5,79</t>
+          <t>1,67; 5,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 4,79</t>
+          <t>1,0; 4,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-49,66; 117,54</t>
+          <t>-46,52; 119,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>40,26; 947,27</t>
+          <t>36,9; 1109,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>60,1; 1079,93</t>
+          <t>80,44; 1099,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>28,92; 444,22</t>
+          <t>26,81; 446,27</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,05</t>
+          <t>2,11; 3,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,61; 5,56</t>
+          <t>3,76; 5,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 3,7</t>
+          <t>2,15; 3,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 3,8</t>
+          <t>2,0; 3,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>78,61; 215,67</t>
+          <t>81,59; 222,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>215,6; 526,59</t>
+          <t>229,38; 543,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>133,1; 362,41</t>
+          <t>135,21; 377,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>78,87; 231,29</t>
+          <t>82,41; 237,83</t>
         </is>
       </c>
     </row>
